--- a/ExcelSheets/GADDS_960.xlsx
+++ b/ExcelSheets/GADDS_960.xlsx
@@ -457,31 +457,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3300417058324661</v>
+        <v>0.3229558332871886</v>
       </c>
       <c r="C2">
-        <v>37.35740855845533</v>
+        <v>37.36725478030781</v>
       </c>
       <c r="D2">
-        <v>28.67062163216031</v>
+        <v>25.97920916807644</v>
       </c>
       <c r="E2">
-        <v>0.7274866164309006</v>
+        <v>0.6226938140757982</v>
       </c>
       <c r="F2">
-        <v>2.405163972769358</v>
+        <v>2.404552830844501</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0.004259741775368251</v>
+        <v>0.004167106495470787</v>
       </c>
       <c r="I2">
-        <v>2.612372951830386</v>
+        <v>2.613036913384378</v>
       </c>
       <c r="J2">
-        <v>0.0102453774514163</v>
+        <v>0.01002002772011479</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -489,31 +489,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4936046210689082</v>
+        <v>0.4952779309927276</v>
       </c>
       <c r="C3">
-        <v>43.3891629488274</v>
+        <v>43.40285148267557</v>
       </c>
       <c r="D3">
-        <v>62.00656412517851</v>
+        <v>60.9458071441541</v>
       </c>
       <c r="E3">
-        <v>0.854086344776112</v>
+        <v>0.7632168016441775</v>
       </c>
       <c r="F3">
-        <v>2.083758914202212</v>
+        <v>2.08313344784656</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.005413641206832387</v>
+        <v>0.00543010475241285</v>
       </c>
       <c r="I3">
-        <v>3.015312982876988</v>
+        <v>3.016218338616198</v>
       </c>
       <c r="J3">
-        <v>0.01128072312302941</v>
+        <v>0.01131163283506177</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -521,31 +521,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5118460028510143</v>
+        <v>0.5141360941035363</v>
       </c>
       <c r="C4">
-        <v>63.07773822022683</v>
+        <v>63.07516437451462</v>
       </c>
       <c r="D4">
-        <v>39.24968217535082</v>
+        <v>41.01127271690685</v>
       </c>
       <c r="E4">
-        <v>0.8202627016086061</v>
+        <v>0.7676018532386145</v>
       </c>
       <c r="F4">
-        <v>1.472594266036407</v>
+        <v>1.472648161406934</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>0.003638951604322366</v>
+        <v>0.003655417095868332</v>
       </c>
       <c r="I4">
-        <v>4.26674573716169</v>
+        <v>4.266589584559544</v>
       </c>
       <c r="J4">
-        <v>0.0053586992669091</v>
+        <v>0.005383143265405973</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -553,31 +553,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.783109037995009</v>
+        <v>0.7931510367458197</v>
       </c>
       <c r="C5">
-        <v>75.59642111127368</v>
+        <v>75.59783130620865</v>
       </c>
       <c r="D5">
-        <v>24.37313317723147</v>
+        <v>21.6419557132574</v>
       </c>
       <c r="E5">
-        <v>0.9266466982633883</v>
+        <v>0.797838709912961</v>
       </c>
       <c r="F5">
-        <v>1.256815387137777</v>
+        <v>1.256795446697833</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.004405399519640411</v>
+        <v>0.004461777654716391</v>
       </c>
       <c r="I5">
-        <v>4.999290565250536</v>
+        <v>4.999369884485453</v>
       </c>
       <c r="J5">
-        <v>0.005536773902773439</v>
+        <v>0.005607541840625696</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.729082203438428</v>
+        <v>0.7383866916542809</v>
       </c>
       <c r="C6">
-        <v>79.68612130876093</v>
+        <v>79.66480783819397</v>
       </c>
       <c r="D6">
-        <v>15.07149595954151</v>
+        <v>12.50337288282275</v>
       </c>
       <c r="E6">
-        <v>0.7829513109860475</v>
+        <v>0.5918123914367112</v>
       </c>
       <c r="F6">
-        <v>1.202272082047299</v>
+        <v>1.202540145951404</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
-        <v>0.003812390553580766</v>
+        <v>0.003862504159021767</v>
       </c>
       <c r="I6">
-        <v>5.226092663218306</v>
+        <v>5.224927690217416</v>
       </c>
       <c r="J6">
-        <v>0.004583530728431002</v>
+        <v>0.004644816315127942</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -617,31 +617,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9533885062636976</v>
+        <v>0.911912925199149</v>
       </c>
       <c r="C7">
-        <v>95.4477466362421</v>
+        <v>95.47482572927632</v>
       </c>
       <c r="D7">
-        <v>7.146291373979537</v>
+        <v>5.85308767885502</v>
       </c>
       <c r="E7">
-        <v>0.9999999996685748</v>
+        <v>0.9229654768626754</v>
       </c>
       <c r="F7">
-        <v>1.041043487443468</v>
+        <v>1.040819901208486</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0.003782088833945565</v>
+        <v>0.003615838235234849</v>
       </c>
       <c r="I7">
-        <v>6.035468626396632</v>
+        <v>6.036765150132351</v>
       </c>
       <c r="J7">
-        <v>0.003937318949511689</v>
+        <v>0.003763436394783003</v>
       </c>
     </row>
   </sheetData>
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2167605410616435</v>
+        <v>0.2205595768012088</v>
       </c>
       <c r="C2">
-        <v>37.35739122730782</v>
+        <v>37.36723863755818</v>
       </c>
       <c r="D2">
-        <v>28.82712952076414</v>
+        <v>26.59650563978667</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999991</v>
+        <v>0.877682012361812</v>
       </c>
       <c r="F2">
-        <v>2.405163972769358</v>
+        <v>2.404552830844501</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2">
-        <v>0.002797659738107258</v>
+        <v>0.002845886579699117</v>
       </c>
       <c r="I2">
-        <v>2.612371783119864</v>
+        <v>2.613035824844039</v>
       </c>
       <c r="J2">
-        <v>0.006728830410162935</v>
+        <v>0.006843084631477887</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -723,31 +723,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4095223573276432</v>
+        <v>0.4211652050467874</v>
       </c>
       <c r="C3">
-        <v>43.3890937604389</v>
+        <v>43.40278584282071</v>
       </c>
       <c r="D3">
-        <v>61.12069755823448</v>
+        <v>60.29799336306316</v>
       </c>
       <c r="E3">
-        <v>0.9436186485724196</v>
+        <v>0.8247910265388306</v>
       </c>
       <c r="F3">
-        <v>2.083758914202212</v>
+        <v>2.08313344784656</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>0.00449147133418489</v>
+        <v>0.004617558852121163</v>
       </c>
       <c r="I3">
-        <v>3.015308406667331</v>
+        <v>3.016213997317537</v>
       </c>
       <c r="J3">
-        <v>0.009359143430491467</v>
+        <v>0.009618991292253564</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -755,31 +755,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3971250443502419</v>
+        <v>0.409354470043285</v>
       </c>
       <c r="C4">
-        <v>63.07763600306847</v>
+        <v>63.07506340843069</v>
       </c>
       <c r="D4">
-        <v>38.90825310576381</v>
+        <v>40.75331113011883</v>
       </c>
       <c r="E4">
-        <v>0.9637391955190664</v>
+        <v>0.8831412949043227</v>
       </c>
       <c r="F4">
-        <v>1.472594266036407</v>
+        <v>1.472648161406934</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4">
-        <v>0.002823352533214626</v>
+        <v>0.002910443951884206</v>
       </c>
       <c r="I4">
-        <v>4.266739535791677</v>
+        <v>4.266583459006023</v>
       </c>
       <c r="J4">
-        <v>0.004157652751411222</v>
+        <v>0.004286059934620208</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -787,31 +787,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6770180098183639</v>
+        <v>0.7040958083727537</v>
       </c>
       <c r="C5">
-        <v>75.59603602334309</v>
+        <v>75.59747059736038</v>
       </c>
       <c r="D5">
-        <v>23.7507759420125</v>
+        <v>21.21154255605961</v>
       </c>
       <c r="E5">
-        <v>0.9920730907071145</v>
+        <v>0.8347821349623027</v>
       </c>
       <c r="F5">
-        <v>1.256815387137777</v>
+        <v>1.256795446697833</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5">
-        <v>0.003808608210261704</v>
+        <v>0.003960833710642816</v>
       </c>
       <c r="I5">
-        <v>4.999268905077988</v>
+        <v>4.999349595766822</v>
       </c>
       <c r="J5">
-        <v>0.004786717402236179</v>
+        <v>0.004977957772663171</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -819,31 +819,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6268087064568861</v>
+        <v>0.6565155400874672</v>
       </c>
       <c r="C6">
-        <v>79.685812440143</v>
+        <v>79.66453772854868</v>
       </c>
       <c r="D6">
-        <v>14.83697526511468</v>
+        <v>12.37323300564048</v>
       </c>
       <c r="E6">
-        <v>0.8390819757276665</v>
+        <v>0.6020057353438675</v>
       </c>
       <c r="F6">
-        <v>1.202272082047299</v>
+        <v>1.202540145951404</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6">
-        <v>0.003277617631796011</v>
+        <v>0.003434252248051938</v>
       </c>
       <c r="I6">
-        <v>5.226075782059241</v>
+        <v>5.224912925134194</v>
       </c>
       <c r="J6">
-        <v>0.003940588174334328</v>
+        <v>0.004129826199606317</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -851,31 +851,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8379504511102601</v>
+        <v>0.771709459940308</v>
       </c>
       <c r="C7">
-        <v>95.44690408252937</v>
+        <v>95.4741108000599</v>
       </c>
       <c r="D7">
-        <v>6.818653042763864</v>
+        <v>5.702185902983858</v>
       </c>
       <c r="E7">
         <v>0.9999999999999999</v>
       </c>
       <c r="F7">
-        <v>1.041043487443468</v>
+        <v>1.040819901208486</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7">
-        <v>0.00332419558206237</v>
+        <v>0.003059953941157318</v>
       </c>
       <c r="I7">
-        <v>6.035428280241079</v>
+        <v>6.036730924267264</v>
       </c>
       <c r="J7">
-        <v>0.003460632161694378</v>
+        <v>0.003184860958737878</v>
       </c>
     </row>
   </sheetData>
